--- a/PWBI STRUTTURALE/Nameofbeams.xlsx
+++ b/PWBI STRUTTURALE/Nameofbeams.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gigi9\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2E0A1DCF-7034-4B6F-9EDA-D0D5A05998F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19703276-9050-4A5D-914F-4163187AA923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nameofbeams" sheetId="1" r:id="rId1"/>
@@ -112,76 +112,76 @@
     <t>Beam</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>T18</t>
-  </si>
-  <si>
-    <t>T19</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>T22</t>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>T008</t>
+  </si>
+  <si>
+    <t>T009</t>
+  </si>
+  <si>
+    <t>T010</t>
+  </si>
+  <si>
+    <t>T007</t>
+  </si>
+  <si>
+    <t>T020</t>
+  </si>
+  <si>
+    <t>T017</t>
+  </si>
+  <si>
+    <t>T012</t>
+  </si>
+  <si>
+    <t>T011</t>
+  </si>
+  <si>
+    <t>T021</t>
+  </si>
+  <si>
+    <t>T018</t>
+  </si>
+  <si>
+    <t>T014</t>
+  </si>
+  <si>
+    <t>T022</t>
+  </si>
+  <si>
+    <t>T019</t>
+  </si>
+  <si>
+    <t>T015</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>T013</t>
+  </si>
+  <si>
+    <t>T016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,10 +659,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1017,20 +1016,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
       <c r="E1" t="s">
         <v>29</v>
       </c>
@@ -1045,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1053,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1061,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1069,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1077,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1085,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1098,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1106,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1114,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1122,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1135,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1148,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1156,7 +1154,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1172,7 +1170,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -1180,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1188,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -1196,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -1222,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -1238,7 +1236,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
